--- a/upload_files/nihad-azimli-resume__jodel_job.xlsx
+++ b/upload_files/nihad-azimli-resume__jodel_job.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>CV ID</t>
   </si>
@@ -55,16 +55,22 @@
     <t>jodel_job.docx</t>
   </si>
   <si>
+    <t>24.69</t>
+  </si>
+  <si>
+    <t>data engineer : 1</t>
+  </si>
+  <si>
     <t>engineer : 1</t>
   </si>
   <si>
-    <t>apache : 6</t>
+    <t>apache : 4</t>
   </si>
   <si>
     <t>celery : 1</t>
   </si>
   <si>
-    <t>python : 9</t>
+    <t>python : 8</t>
   </si>
   <si>
     <t>aws : 16</t>
@@ -79,12 +85,18 @@
     <t>research : 1</t>
   </si>
   <si>
+    <t>data migration : 1</t>
+  </si>
+  <si>
     <t>migration : 1</t>
   </si>
   <si>
     <t>mongodb : 5</t>
   </si>
   <si>
+    <t>apache spark : 4</t>
+  </si>
+  <si>
     <t>spark : 2</t>
   </si>
   <si>
@@ -97,7 +109,7 @@
     <t>kinesis : 2</t>
   </si>
   <si>
-    <t>dynamodb : 5</t>
+    <t>dynamodb : 4</t>
   </si>
   <si>
     <t>reports : 1</t>
@@ -109,7 +121,7 @@
     <t>conversion : 1</t>
   </si>
   <si>
-    <t>sql : 2</t>
+    <t>sql : 1</t>
   </si>
   <si>
     <t>ssis : 1</t>
@@ -121,10 +133,16 @@
     <t>selenium : 2</t>
   </si>
   <si>
+    <t>sql queries : 1</t>
+  </si>
+  <si>
     <t>queries : 1</t>
   </si>
   <si>
-    <t>bi : 2</t>
+    <t>stored procedures : 1</t>
+  </si>
+  <si>
+    <t>bi : 1</t>
   </si>
   <si>
     <t>developer : 3</t>
@@ -136,7 +154,10 @@
     <t>deployment : 1</t>
   </si>
   <si>
-    <t>software : 4</t>
+    <t>software developer : 3</t>
+  </si>
+  <si>
+    <t>software : 2</t>
   </si>
   <si>
     <t>analysis : 3</t>
@@ -145,15 +166,21 @@
     <t>project : 3</t>
   </si>
   <si>
+    <t>data mining : 3</t>
+  </si>
+  <si>
     <t>mining : 2</t>
   </si>
   <si>
-    <t>tensorflow : 4</t>
+    <t>tensorflow : 3</t>
   </si>
   <si>
     <t>intern : 1</t>
   </si>
   <si>
+    <t>computer engineering : 1</t>
+  </si>
+  <si>
     <t>engineering : 1</t>
   </si>
   <si>
@@ -193,16 +220,22 @@
     <t>amazon : 1</t>
   </si>
   <si>
+    <t>web services : 1</t>
+  </si>
+  <si>
+    <t>microsoft azure : 1</t>
+  </si>
+  <si>
     <t>databases : 1</t>
   </si>
   <si>
     <t>redshift : 2</t>
   </si>
   <si>
-    <t>mysql : 1</t>
-  </si>
-  <si>
-    <t>unix : 1</t>
+    <t>mysql : 2</t>
+  </si>
+  <si>
+    <t>unix shell : 2</t>
   </si>
   <si>
     <t>shell : 1</t>
@@ -211,37 +244,31 @@
     <t>java : 1</t>
   </si>
   <si>
+    <t>bi tools : 1</t>
+  </si>
+  <si>
     <t>tableau : 1</t>
   </si>
   <si>
     <t>english : 1</t>
   </si>
   <si>
-    <t>apache spark : 2</t>
-  </si>
-  <si>
-    <t>sql queries : 1</t>
-  </si>
-  <si>
-    <t>software developer : 1</t>
-  </si>
-  <si>
-    <t>data mining : 2</t>
-  </si>
-  <si>
     <t>amazon web services : 1</t>
   </si>
   <si>
-    <t>unix shell : 1</t>
+    <t>python : 1</t>
+  </si>
+  <si>
+    <t>redshift : 3</t>
   </si>
   <si>
     <t>aws : 2</t>
   </si>
   <si>
-    <t>python : 1</t>
-  </si>
-  <si>
-    <t>redshift : 3</t>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
 </sst>
 </file>
@@ -582,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,333 +670,363 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>360</v>
+      <c r="D2" t="s">
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2">
-        <v>360</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="E9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="E10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="E11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="E12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="E13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="E14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="E15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="E16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="5:5">
       <c r="E30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="5:5">
       <c r="E44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="5:5">
       <c r="E45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="5:5">
       <c r="E46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="5:5">
       <c r="E47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="5:5">
       <c r="E50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="5:5">
       <c r="E51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="5:5">
       <c r="E52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="5:5">
       <c r="E53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="5:5">
       <c r="E54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="5:5">
       <c r="E55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="5:5">
       <c r="E56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="5:5">
       <c r="E57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="5:5">
       <c r="E58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="5:5">
       <c r="E59" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="5:5">
       <c r="E60" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="5:5">
       <c r="E61" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5">
+      <c r="E62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5">
+      <c r="E63" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5">
+      <c r="E64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5">
+      <c r="E65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5">
+      <c r="E66" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5">
+      <c r="E67" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
